--- a/SP9T-Custom-System-Build-BOM.xlsx
+++ b/SP9T-Custom-System-Build-BOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\MEMSduino\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2D2EED5-384A-4681-AD7D-2522900CA725}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28FE5448-4F7D-4099-AD47-E32D1BEEEAC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{964DCA75-9C03-4665-A5C3-D212B2818574}"/>
   </bookViews>
@@ -868,8 +868,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9227DDD-8365-4864-A5FB-3571E7A7DE36}">
   <dimension ref="A1:K44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1187,7 +1187,7 @@
         <v>8</v>
       </c>
       <c r="G10" s="2">
-        <f t="shared" ref="G10:G34" si="1">$E10*$F10</f>
+        <f t="shared" ref="G10:G33" si="1">$E10*$F10</f>
         <v>0.65600000000000003</v>
       </c>
       <c r="H10" t="s">
